--- a/Running projects/Khaadi Kanteen F-6, Islamabad/VO/01- variation order for Kitchen Hood.xlsx
+++ b/Running projects/Khaadi Kanteen F-6, Islamabad/VO/01- variation order for Kitchen Hood.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20416"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0576AF2-FD4A-4F21-BA7A-6CF66BE624B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B81D57B-24F4-42A3-B292-5731BCC077B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -405,6 +405,9 @@
     <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -416,9 +419,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -558,6 +558,50 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>296813</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>210739</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{206B5EE7-662B-471B-89EA-514851FC6153}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7943850" y="0"/>
+          <a:ext cx="11021963" cy="8516539"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -886,10 +930,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A7:L44"/>
+  <dimension ref="A7:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -916,10 +960,10 @@
     <row r="13" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:9" ht="22.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="34"/>
+      <c r="B15" s="35"/>
       <c r="I15" s="9">
         <v>45726</v>
       </c>
@@ -928,30 +972,30 @@
       <c r="A16" s="27"/>
       <c r="B16" s="28"/>
     </row>
-    <row r="17" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A17" s="26" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="26"/>
     </row>
-    <row r="18" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
     </row>
-    <row r="19" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="35" t="s">
+    <row r="19" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-    </row>
-    <row r="20" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+    </row>
+    <row r="20" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="16"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -962,34 +1006,34 @@
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
     </row>
-    <row r="21" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="35" t="s">
+    <row r="21" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-    </row>
-    <row r="22" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="36" t="s">
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+    </row>
+    <row r="22" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-    </row>
-    <row r="23" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+    </row>
+    <row r="23" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>0</v>
       </c>
@@ -1018,8 +1062,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="38">
+    <row r="25" spans="1:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="34">
         <v>1</v>
       </c>
       <c r="B25" s="31" t="s">
@@ -1056,9 +1100,16 @@
         <f t="shared" ref="L25:L26" si="2">K25*1.18</f>
         <v>932790</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="38">
+      <c r="M25">
+        <v>650000</v>
+      </c>
+      <c r="N25">
+        <f>M25*1.18</f>
+        <v>767000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="34">
         <v>2</v>
       </c>
       <c r="B26" s="31" t="s">
@@ -1096,8 +1147,8 @@
         <v>1546980</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="38">
+    <row r="27" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="34">
         <v>3</v>
       </c>
       <c r="B27" s="31" t="s">
@@ -1129,8 +1180,8 @@
       </c>
       <c r="L27" s="32"/>
     </row>
-    <row r="28" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="38">
+    <row r="28" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="34">
         <v>4</v>
       </c>
       <c r="B28" s="31" t="s">
@@ -1162,26 +1213,26 @@
       </c>
       <c r="L28" s="32"/>
     </row>
-    <row r="29" spans="1:12" s="25" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="37" t="s">
+    <row r="29" spans="1:14" s="25" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
       <c r="I29" s="30">
         <f>SUM(I25:I28)</f>
         <v>3410905.5999999996</v>
       </c>
       <c r="K29" s="21"/>
     </row>
-    <row r="30" spans="1:12" ht="8.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:12" ht="7.5" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:12" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="8.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:14" ht="7.5" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:14" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="24"/>
       <c r="B32" s="5"/>
     </row>
